--- a/src/attributions/attributions_ig_traj_438.xlsx
+++ b/src/attributions/attributions_ig_traj_438.xlsx
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.1691592190714176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003470699039086012</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.02619577409904807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003267660435752371</v>
+        <v>0.008573977693596205</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1025,52 +1025,52 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03759657645789046</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0.105954378483498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009238700770984657</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0.06099137869387256</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.001551239254761071</v>
+        <v>-0.008497730988920815</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03476910414440142</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>0.06976532277449096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01083677323222638</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0.04382553464003503</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002399520603274067</v>
+        <v>0.04938338855940954</v>
       </c>
       <c r="X2" t="n">
         <v>-0</v>
@@ -1079,25 +1079,25 @@
         <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01803241971771475</v>
+        <v>-0</v>
       </c>
       <c r="AB2" t="n">
         <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>3.875939283947947e-11</v>
       </c>
       <c r="AD2" t="n">
-        <v>-9.21348963430455e-12</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>1.491643312620075e-11</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.22009593163933e-11</v>
+        <v>1.425707621801336e-11</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1106,25 +1106,25 @@
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.468127220406083e-11</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0.01579681711947696</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.02172432546312588</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0.02678198416982497</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.01564901193525824</v>
+        <v>-0.01703725346113138</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -1133,55 +1133,55 @@
         <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0005882990537506073</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.3385993978353455</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.0225705073055414</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.05795214582744793</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.002217285835831002</v>
+        <v>0.1974997683796103</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
         <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.05674551649358459</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>0.0167882890387811</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0005062288567839939</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.007516688502748258</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0005871843221925209</v>
+        <v>-0.01465895214159008</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>-0</v>
@@ -1190,76 +1190,76 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0005402007489277996</v>
+        <v>-0</v>
       </c>
       <c r="BL2" t="n">
         <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0</v>
+        <v>0.06618124988615448</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.02672289387230828</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>0.040183746645557</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02130242474330568</v>
+        <v>0.1734913542702438</v>
       </c>
       <c r="BQ2" t="n">
         <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.02115414887486028</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
         <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.1675070131324681</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01203004727391816</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.0278696593502474</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01437315662973576</v>
+        <v>0.08356918580708549</v>
       </c>
       <c r="BZ2" t="n">
         <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.05542962343489988</v>
+        <v>-0</v>
       </c>
       <c r="CD2" t="n">
         <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.08163556372499743</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.005113701123878054</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>0.001296087587191773</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.005192114704216892</v>
+        <v>-0.01290645373066799</v>
       </c>
       <c r="CI2" t="n">
         <v>-0</v>
@@ -1271,22 +1271,22 @@
         <v>-0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.01455886247792957</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0.05904071472027538</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.00456530195871888</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0.06153599809164668</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.02573061375671631</v>
+        <v>-0.0817384069411481</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
@@ -1298,22 +1298,22 @@
         <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.01677257466369571</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.06625082389055476</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.004664162489294309</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0</v>
+        <v>0.0135064721392901</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.007433537579308095</v>
+        <v>-0.004472998544913443</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
@@ -1325,52 +1325,52 @@
         <v>0</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.01568182147224156</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="n">
         <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.01904159120978769</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.02983656999892612</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0</v>
+        <v>0.02296955177909794</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0003703945254259485</v>
+        <v>0.01561066515842972</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.004388593906006421</v>
+        <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.09156717227222309</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.02144790975842455</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>-0.06387996280601155</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.01451550441602959</v>
+        <v>-0.009238191640754088</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1379,49 +1379,49 @@
         <v>-0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.005273222273392667</v>
+        <v>-0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.002110992687809858</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.004684268922789807</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.03991541489310325</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.001812480336527005</v>
+        <v>-0.01607478502389954</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.009982879722664225</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.05948184719141259</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0009216777680570604</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0</v>
+        <v>0.007286047550175166</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01357503548858512</v>
+        <v>0.01927235269271974</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1430,28 +1430,28 @@
         <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.0174013894827577</v>
+        <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0.08323386770716024</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.01353453907132818</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0</v>
+        <v>-0.01725839799718054</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0006521496326390764</v>
+        <v>0.03756194183654127</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
         <v>-0</v>
@@ -1460,22 +1460,22 @@
         <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.01348950969954871</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
         <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.06914770328582716</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.005772045889493179</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0</v>
+        <v>0.00356130012005395</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0003219404025125946</v>
+        <v>0.01072245891903233</v>
       </c>
       <c r="FC2" t="n">
         <v>-0</v>
@@ -1487,52 +1487,52 @@
         <v>-0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.01924176967937776</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.03546197501227458</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00112925866895418</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>0.01822965154978777</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.005432040507333763</v>
+        <v>-0.0178103131009166</v>
       </c>
       <c r="FL2" t="n">
         <v>-0</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.03082517269034515</v>
+        <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.07969568090806185</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.01207710856455782</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0</v>
+        <v>-0.09057172573340275</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.001675558774463227</v>
+        <v>-0.003457559281731934</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.004968304258032349</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.01683188704032878</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0117390659783869</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>-0.05787041466301544</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
@@ -1565,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.008686351553911106</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -1576,100 +1576,100 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.2743115080938763</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0321542636249099</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03822888626696203</v>
+        <v>0.01752996409389752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0.1290090432158836</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07719083606955386</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.1896620531747152</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.002396903852061139</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.01545850218114717</v>
+        <v>-0.006678067651017304</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>-0.09102176666821046</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08872111224613814</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.002507764033312028</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02272610050535907</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.09938013888283727</v>
+        <v>-0.1216333004285383</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>-0.05311079682315385</v>
       </c>
       <c r="Y3" t="n">
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05120823602177188</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>6.761522365711898e-11</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-3.842370929223407e-12</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-4.476400810155697e-11</v>
+        <v>2.595464399012346e-11</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-8.354591643159853e-12</v>
       </c>
       <c r="AH3" t="n">
         <v>-0</v>
@@ -1678,52 +1678,52 @@
         <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-4.952864407543817e-11</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.05120216586079463</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.01963311067292732</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.03632159132547643</v>
+        <v>-0.04677984130800337</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>-0.1682298124567096</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
         <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.02909057030091238</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.4634689099043804</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.08202941581803619</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.06461569796510086</v>
+        <v>0.02600974164591208</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.1671490162856555</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1732,52 +1732,52 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.09200038883517719</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.04298925702074981</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.00665552138870093</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.01440695504988206</v>
+        <v>-0.02123230578245329</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.01922352272820982</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.002763108398729754</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
         <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0.181203274144081</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.007578234226029706</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.006118390620317661</v>
+        <v>0.08426255242815775</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>0.03123332524595517</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
@@ -1786,160 +1786,160 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.06361805990120076</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
         <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>0.2140543596906546</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.06116129866635815</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.03613262084491049</v>
+        <v>-0.04411940047012342</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>0.01388962330631366</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.09788330846569919</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
         <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.09771213223954851</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.01663040376550191</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01880704661682021</v>
+        <v>-0.03062343194820516</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0.08338675673836668</v>
       </c>
       <c r="CJ3" t="n">
         <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.02239570963135241</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0.0192197420920768</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.02442084187043499</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.03645876078529603</v>
+        <v>0.0245133408172032</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>-0.1082006264265352</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.04339000287394294</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
         <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.06492440065907977</v>
       </c>
       <c r="CX3" t="n">
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0234686383310668</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.009011681732933501</v>
+        <v>-0.02761830426653996</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.09429309574617928</v>
       </c>
       <c r="DB3" t="n">
         <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.02546360777846036</v>
+        <v>-0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.009917188142163084</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.02536220631546369</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.002341499347719935</v>
+        <v>0.01171564627735392</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0.008389245862603052</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.005228319847654264</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.04761297452225392</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.01123249201422069</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.003903526858406621</v>
+        <v>0.07672590289873633</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.07092922562847516</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,25 +1948,25 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.01541610284318339</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
         <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.06410190591717878</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.01846430381638479</v>
+        <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.01591954303310208</v>
+        <v>-0.03042189041904364</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>-0.04467982636348111</v>
       </c>
       <c r="EC3" t="n">
         <v>0</v>
@@ -1975,25 +1975,25 @@
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.007438715219526255</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
         <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.03007011392934795</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.0004665752867653505</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0402220975816641</v>
+        <v>0.002865124287265554</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0.05343499655567275</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -2002,79 +2002,79 @@
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.04701149718718158</v>
+        <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0</v>
+        <v>-0.0854521102741999</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.04001411911788032</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.01380038214125419</v>
+        <v>-0.06136616790804077</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>0.1894485614312381</v>
       </c>
       <c r="EU3" t="n">
         <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.0246767517520639</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
         <v>-0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.06118579435631016</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.01202896058335755</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.01835392109246246</v>
+        <v>-0.02123551304913026</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0.08786336939117344</v>
       </c>
       <c r="FD3" t="n">
         <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.0375234642403891</v>
+        <v>0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.04748600792208877</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.01826859727164416</v>
+        <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.02698539352716175</v>
+        <v>-0.05438257677469473</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0.003680049134297337</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
@@ -2083,87 +2083,87 @@
         <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.0256705658143915</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>-0.08523670965876222</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0008604079134170421</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.0128171565857303</v>
+        <v>-0.06726665050117556</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0.00811531285891794</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0.03450027505163889</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.05681257433684641</v>
       </c>
       <c r="GA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.05190318640555913</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.06131407169778497</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.007873904735435186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0.01254751349172637</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0.1189495039802701</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02152583711734337</v>
+        <v>-0.03989846364054393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1218806281447033</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.005817812224254304</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2175,25 +2175,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.05544948658776652</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>0.1753649017526675</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002343763001650335</v>
+        <v>0.02564899427495532</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1184539150402268</v>
+        <v>-0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.03418087494737333</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2202,76 +2202,76 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-0.056190105244269</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.06989908184052281</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.04128756039269154</v>
+        <v>-0.01258743395630189</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03727367065440967</v>
+        <v>-0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.01333421534868194</v>
+        <v>-0</v>
       </c>
       <c r="AA4" t="n">
         <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.03362786049590677</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>-0.009065777062096776</v>
       </c>
       <c r="AF4" t="n">
-        <v>-4.616249091756371e-11</v>
+        <v>-1.576309582927744e-11</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.000198512513946807</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.001402587265699388</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>0.002363952999998976</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0</v>
+        <v>0.06062736982374611</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.05757250962042278</v>
+        <v>0.02752295908452909</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02087574065504265</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.01270319073074553</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>-0.1154916068740182</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.1005547335964163</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.02494674882000316</v>
+        <v>-0.1817663703775287</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1354641749447858</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.05909786557806527</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
         <v>0</v>
@@ -2307,52 +2307,52 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>-0.009159648298634819</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>0.01315735121754001</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.001615171111353058</v>
+        <v>0.01115624759828031</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.007269301477064435</v>
+        <v>-0</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.00329293894185268</v>
+        <v>-0</v>
       </c>
       <c r="BK4" t="n">
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
         <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>0.02950776523106696</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0.06625095087877123</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.03643038679051867</v>
+        <v>-0.06849743769361277</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.0478403107610396</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.002244004469414748</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
         <v>0</v>
@@ -2364,49 +2364,49 @@
         <v>0</v>
       </c>
       <c r="BW4" t="n">
-        <v>0</v>
+        <v>-0.1093605303596395</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.1210209402506181</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01266430466656658</v>
+        <v>-0.1092296081745087</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.1045862913537998</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.04348147078575571</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>0.04862391619019686</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0.0557791638982168</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.006795311389024359</v>
+        <v>0.002907508122991026</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.04775737653931787</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.03045258114376333</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
         <v>-0</v>
@@ -2415,106 +2415,106 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>0.02171324639502373</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>0.02369688048980582</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.07854868817081326</v>
+        <v>0.05804308375597202</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.04911010548299508</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.0001153914056104422</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0</v>
+        <v>0.0369500220741209</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>-0.05668275985499761</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.001346259078423349</v>
+        <v>0.008035514211187349</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.05253784183680654</v>
+        <v>-0</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.03785900657164471</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
         <v>0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0.01705751296851888</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>-0.04319543173211763</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.003034920947590341</v>
+        <v>0.003714694146988855</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.02547432252387126</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.004014381073291832</v>
+        <v>0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
         <v>0</v>
       </c>
       <c r="DP4" t="n">
-        <v>0</v>
+        <v>0.004570419416753462</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>-0.01579298445261038</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.01805026743914711</v>
+        <v>0.02980784342543822</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.007760407370494752</v>
+        <v>-0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.04994164425281502</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
         <v>-0</v>
@@ -2526,103 +2526,103 @@
         <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>0</v>
+        <v>-0.0005768233288189662</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>0.04111018938813918</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01986252226914788</v>
+        <v>0.04405065660329108</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.001929433455061874</v>
+        <v>-0</v>
       </c>
       <c r="EC4" t="n">
         <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.04097322553787718</v>
+        <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
         <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>0.06426833572712112</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>-0.0662979687946296</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.009029570543820071</v>
+        <v>0.0239801080405099</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.07365854294173323</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.004085665023138007</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>0.03120878657616924</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0.02980944059919468</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.02041867279339594</v>
+        <v>-0.01236330595243111</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0.03459306575247131</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.02887274874437202</v>
+        <v>-0</v>
       </c>
       <c r="EW4" t="n">
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>0.03734676030710679</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0.05603529873992402</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.001256339686194484</v>
+        <v>-0.002731617069391279</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.04820254245796076</v>
+        <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.03350054284009457</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
         <v>0</v>
@@ -2631,52 +2631,52 @@
         <v>-0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0</v>
+        <v>0.04168713505694301</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>0.007402947699181521</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.02626150043861961</v>
+        <v>-0.01752036718788693</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0.009894856938377721</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0549659734017417</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>-0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0.009199430866072679</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>0.003289070895095073</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01717280748593878</v>
+        <v>-0.02619930551981697</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.01174993530425451</v>
+        <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.004681365474126616</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
         <v>-0</v>
@@ -2688,22 +2688,22 @@
         <v>-0</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>0.003480763919535976</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0.03790513836758912</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.02050184193618742</v>
+        <v>0</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.001774341157743128</v>
+        <v>-0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>-0</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>-0</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>-0</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>-0</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>-0</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>-0</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>-0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>-0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>-0</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>-0</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>-0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>-0</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>-0</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>-0</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>-0</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD5" t="n">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>-0</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
         <v>0</v>
@@ -3283,52 +3283,52 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.07710138960658418</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03692409015630369</v>
+        <v>-0.0592934649980321</v>
       </c>
       <c r="F6" t="n">
-        <v>0.124286624609719</v>
+        <v>-0.03082085100794316</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001583884458409393</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.04570815919397022</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0008694453502587392</v>
+        <v>-0.05559042536858964</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1412403488312753</v>
+        <v>-0.03664691208922091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.002230423431705868</v>
+        <v>-0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -3337,52 +3337,52 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.01476876869966069</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.03170270324365603</v>
+        <v>-0.01654505632304664</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02984522429107007</v>
+        <v>0.02031878686217674</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.0220420464832848</v>
+        <v>-0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB6" t="n">
         <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.01374172609489367</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01859730916540407</v>
+        <v>0.002976368366179147</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.01324257784307352</v>
+        <v>0.00154956834833887</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.0032782759892122</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.02528431077362644</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3400,25 +3400,25 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.005892026629015915</v>
+        <v>-0.01878887870955002</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.01140382919854754</v>
+        <v>-0.006390065834809933</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.01841855872213964</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.09850999644300303</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3427,52 +3427,52 @@
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.009491968894807499</v>
+        <v>-0.07048378414987319</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.07066121941219117</v>
+        <v>-0.02894853848123702</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0.01749836037658022</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.02097423860085062</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.005683708062214916</v>
+        <v>-0.02033350587055423</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.02470662315687264</v>
+        <v>-0.006773115414709647</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.01310257831855501</v>
+        <v>-0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.04167734054206985</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3481,25 +3481,25 @@
         <v>0</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.0279074927323162</v>
+        <v>0.0178896841389973</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.0411109739416838</v>
+        <v>0.01765942597364123</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>-0.02566183180205589</v>
+        <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.04411140188489734</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3508,25 +3508,25 @@
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.06909609817838544</v>
+        <v>-0.0261577049449027</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.1135086674596839</v>
+        <v>0.000137873520276579</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.002062707189814624</v>
+        <v>-0</v>
       </c>
       <c r="CC6" t="n">
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.01688322466454891</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3535,43 +3535,43 @@
         <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.005941669828927967</v>
+        <v>0.01912402168003641</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0.02917850076763287</v>
+        <v>0.01939020179580972</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.0005973256136333332</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.002735419814528794</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.01963475724450279</v>
+        <v>0.001310618773320322</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.04334874751989967</v>
+        <v>-0.0105809246748544</v>
       </c>
       <c r="CS6" t="n">
         <v>-0</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.05118136398070419</v>
+        <v>0</v>
       </c>
       <c r="CU6" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.007869337369024534</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
@@ -3589,43 +3589,43 @@
         <v>-0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.01642246650727948</v>
+        <v>0.01574040164101125</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0.03764701376730471</v>
+        <v>0.02602055264007925</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.007975197810708873</v>
+        <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>0.01533601115436029</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.03233384449676233</v>
+        <v>0.02620558934235264</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.006388776970683926</v>
+        <v>-0.004589393327685816</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.003961479364277667</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
@@ -3634,34 +3634,34 @@
         <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.01489458407588808</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.009935801329904086</v>
+        <v>0.02229499505045078</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.03200277367495798</v>
+        <v>-0.02678313346265856</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>-0.02425302942636422</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.01151293591685486</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
@@ -3670,52 +3670,52 @@
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.02532104175433608</v>
+        <v>-0.03219920600631691</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.0002345548179455218</v>
+        <v>-0.000799059073130918</v>
       </c>
       <c r="EC6" t="n">
         <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.008633452470590627</v>
+        <v>0</v>
       </c>
       <c r="EE6" t="n">
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.01121021065933306</v>
       </c>
       <c r="EH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.02344716657529687</v>
+        <v>0.003157540870553318</v>
       </c>
       <c r="EK6" t="n">
-        <v>-0.06616432680846034</v>
+        <v>0.01915279225494401</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>-0.05222528122036476</v>
+        <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>0.007428834688410854</v>
       </c>
       <c r="EQ6" t="n">
         <v>-0</v>
@@ -3724,124 +3724,124 @@
         <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.01237393100199894</v>
+        <v>0.02117329997562055</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0.02972895319391158</v>
+        <v>0.01104352086508034</v>
       </c>
       <c r="EU6" t="n">
         <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.01792019070199613</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.003404034931334412</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.01900572115375426</v>
+        <v>0.01617631089462195</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0.03580588439197838</v>
+        <v>0.02417614834488365</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.004989669429319313</v>
+        <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0.02139003926436472</v>
       </c>
       <c r="FI6" t="n">
         <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.01045687493514782</v>
+        <v>-0.03814093526810047</v>
       </c>
       <c r="FL6" t="n">
-        <v>-0.02447985897057653</v>
+        <v>0.01269318243390147</v>
       </c>
       <c r="FM6" t="n">
         <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.02274577007508915</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.003364954977012221</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.008557153680392064</v>
+        <v>-0.0001814358105517493</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.00924960539180583</v>
+        <v>0.01892183394703803</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.03341663146550784</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>-0</v>
+        <v>-0.0172990571606688</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.03070415528475445</v>
+        <v>-0.00137655841245735</v>
       </c>
       <c r="GE6" t="n">
         <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0.01442230721779674</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3852,19 +3852,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.127046354504566</v>
+        <v>0.2844318628154626</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1098743301142869</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01838012884738784</v>
+        <v>-0.02248620957256975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.323536847414437</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3879,52 +3879,52 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1270804251703505</v>
+        <v>0.2577031142972308</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.1325088040230284</v>
       </c>
       <c r="N7" t="n">
-        <v>0.008239081262060379</v>
+        <v>-0.08716244546388285</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4248295898963248</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002841601498750212</v>
+        <v>0.1001422575645046</v>
       </c>
       <c r="U7" t="n">
         <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.03671398225704103</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03924797793945766</v>
+        <v>0.0654465237425027</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1689875270592593</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -3933,103 +3933,103 @@
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.008592930690902695</v>
+        <v>0.04648218195504</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.001386295482526571</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.05416411304351899</v>
+        <v>0.001028169894792358</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.06181252111510499</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.04754542315649105</v>
+        <v>0.03956268389346618</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.04567381635873553</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02026291500609526</v>
+        <v>-0.01181494765947292</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0969032047344671</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
         <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0.1942498681575746</v>
+        <v>0.3867913936655016</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>0.003746838920987292</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.08953585165348332</v>
+        <v>0.2061717612448196</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1868564816255093</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
         <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.02082077732856502</v>
+        <v>0.008326607217299246</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.04048104884718543</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.04612990616963381</v>
+        <v>-0.07592555751745683</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.09641217668903913</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -4041,52 +4041,52 @@
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.03231068954736933</v>
+        <v>0.0116922331877805</v>
       </c>
       <c r="BN7" t="n">
         <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.04941961958993465</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.1282831685614019</v>
+        <v>0.05655814250328284</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.09240037112569366</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0.135948033711382</v>
+        <v>0.235838608980643</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.01016982173616007</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0658451314861796</v>
+        <v>0.09764601883574001</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.2225750633926056</v>
+        <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
         <v>0</v>
@@ -4095,19 +4095,19 @@
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.05368856407174691</v>
+        <v>-0.08568224373246545</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.01739922525702181</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.0002091031745938767</v>
+        <v>-0.01400547110548966</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0.07730147044641757</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
@@ -4122,25 +4122,25 @@
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.05159019996212977</v>
+        <v>-0.04743206961735517</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>-0.07970023789240654</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.05878493109404549</v>
+        <v>-0.1780141759118013</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.07617359684823455</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
@@ -4149,127 +4149,127 @@
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.04510049670699726</v>
+        <v>-0.07375137262751513</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.02313769784380983</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.005035275315450275</v>
+        <v>-0.01402095684498433</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0.07781322627197017</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.008760535806363446</v>
+        <v>-0.04239303702054946</v>
       </c>
       <c r="DG7" t="n">
         <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>0.01959941344120823</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.00612603549153231</v>
+        <v>0.01379336953219107</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.07308321872705824</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-3.733624337373803e-05</v>
+        <v>-0.06829553357045939</v>
       </c>
       <c r="DP7" t="n">
         <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0</v>
+        <v>-0.02985894439814878</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.02146934491212703</v>
+        <v>-0.05946351841557498</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.09459589030711416</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0.006837297446787637</v>
+        <v>0.03812324827954588</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.01977567894439812</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.004908818390988869</v>
+        <v>-0.04134277043762103</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0.007976886535256264</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.06417819639893568</v>
+        <v>-0.05073216386694406</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.04195045849544903</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.05637416005131924</v>
+        <v>0.04695776606162186</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0.09968514554343022</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
@@ -4281,49 +4281,49 @@
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0.01136844612012071</v>
+        <v>-0.06671586363843154</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>0.02797783363694842</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01100732564107831</v>
+        <v>0.005112310950050408</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0.105719821623236</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.06663023065036251</v>
+        <v>-0.0842828986269277</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.03573213583626421</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.01370053386374303</v>
+        <v>-0.02165239996111048</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0.08962501787547134</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
@@ -4332,25 +4332,25 @@
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.07140517086332883</v>
+        <v>-0.005028182511796274</v>
       </c>
       <c r="FI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.05765469306068702</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.006194956574718562</v>
+        <v>-0.05235575472265181</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0.0986904751302871</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
@@ -4362,58 +4362,58 @@
         <v>-0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.04345090867578678</v>
+        <v>0.004737094071501808</v>
       </c>
       <c r="FR7" t="n">
         <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.04983652987919214</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.003933337249984095</v>
+        <v>0.02609744076871311</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.001740414424433748</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
         <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0.03567497980230783</v>
+        <v>-0.03799009389361788</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.06101900478073304</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.03305780555243201</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,25 +4421,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1452946990942666</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01288512826688169</v>
+        <v>-0.007041043668583083</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2481150741388542</v>
+        <v>-0.07834843064417112</v>
       </c>
       <c r="G8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.06725686125037546</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4448,34 +4448,34 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1148963113139924</v>
       </c>
       <c r="L8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.05208037016405056</v>
+        <v>-0.002568191796876374</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2489759128367915</v>
+        <v>-0.1090133793714032</v>
       </c>
       <c r="P8" t="n">
         <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.09051952802836764</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.01536677134857771</v>
       </c>
       <c r="U8" t="n">
         <v>-0</v>
@@ -4484,25 +4484,25 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.05745334360312632</v>
+        <v>-0.02467925202895664</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08045009796617089</v>
+        <v>0.005734553809758094</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01612941293596152</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0.01893722070176955</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.07026978752989425</v>
+        <v>0.01175328391113499</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.02387081785709779</v>
+        <v>-0.007565244598927418</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.0333639828698163</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -4529,88 +4529,88 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0</v>
+        <v>0.006693731838250172</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.03621937905046944</v>
+        <v>-0.03237704655684855</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.03939478399221125</v>
+        <v>-0.02815100488614279</v>
       </c>
       <c r="AQ8" t="n">
         <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.01022971428029443</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1257188238351603</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.05031742805632647</v>
+        <v>-0.03882183044143388</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.1915937871103651</v>
+        <v>-0.07925508266631762</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.08556922413416714</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.04432839845028674</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.02252681020501334</v>
+        <v>-0.01196678929714049</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.02555810111597144</v>
+        <v>-0.0203087739960339</v>
       </c>
       <c r="BI8" t="n">
         <v>-0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.0244434578128177</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.0654511666129856</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4619,43 +4619,43 @@
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.02782458410553109</v>
+        <v>0.02385198385247353</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.04771728297414175</v>
+        <v>0.01148689410048041</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0.007394304242397496</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.06208116324015506</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.005159246539568711</v>
+        <v>-0.00518052317426646</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.1574003567074427</v>
+        <v>-0.02904614736422339</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>-0.0257132279187727</v>
+        <v>0</v>
       </c>
       <c r="CC8" t="n">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.03485904182031496</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4673,43 +4673,43 @@
         <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.005678076757515665</v>
+        <v>-0.004953114511919068</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0.06130605973189535</v>
+        <v>0.03564948846319392</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0308771536815057</v>
+        <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>-0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0.01158373643282451</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
         <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.05909136775475668</v>
+        <v>0.01698017495831568</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.07788420921943845</v>
+        <v>-0.02605197723867882</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.01429930854511538</v>
+        <v>-0</v>
       </c>
       <c r="CU8" t="n">
         <v>0</v>
@@ -4718,115 +4718,115 @@
         <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>-0.02458018608907786</v>
       </c>
       <c r="CX8" t="n">
         <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.00757645061093678</v>
+        <v>-0.005646837800130709</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0.07018539743159895</v>
+        <v>0.0354581451806171</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.04566509497055311</v>
+        <v>-0</v>
       </c>
       <c r="DD8" t="n">
         <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.02397957652364528</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.03791306706952155</v>
+        <v>0.02074069244596599</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0.0273413200054593</v>
+        <v>-0.004359673589193509</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0.007861404042828118</v>
+        <v>-0</v>
       </c>
       <c r="DM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN8" t="n">
         <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.02160746670110682</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.02141028457051296</v>
+        <v>0.01035684517098687</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0.01547640327827736</v>
+        <v>0.005645101122374551</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.01483496454544439</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.02059595909823621</v>
       </c>
       <c r="DY8" t="n">
         <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.01369560306295529</v>
+        <v>-0.0142750152779702</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0.004738894663688436</v>
+        <v>-0.02624826402372335</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.003681493513994979</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
         <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>-0</v>
+        <v>-0.02314320489449101</v>
       </c>
       <c r="EH8" t="n">
         <v>-0</v>
@@ -4835,25 +4835,25 @@
         <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.03824960251177735</v>
+        <v>0.005028097670422927</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0.08366375715197583</v>
+        <v>0.02123081181757024</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.003426710387758181</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.008209945022811263</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4862,16 +4862,16 @@
         <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.02136030022429295</v>
+        <v>-0.004210018717703018</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0.04613322551353218</v>
+        <v>0.02592141748524442</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.03918572339830687</v>
+        <v>0</v>
       </c>
       <c r="EW8" t="n">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>-0</v>
+        <v>-0.0250970624720597</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4889,16 +4889,16 @@
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.009162329700429067</v>
+        <v>-0.001301642992304459</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0.0690990904711591</v>
+        <v>0.03815210308450429</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.04243849732316672</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
         <v>0</v>
@@ -4907,64 +4907,64 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.0009312168417003676</v>
       </c>
       <c r="FI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.01373815619906936</v>
+        <v>-0.02425659023409844</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0.02830174370706511</v>
+        <v>0.02423695923004239</v>
       </c>
       <c r="FM8" t="n">
         <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.05383354540789845</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>0.0002285943718064047</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0002402878636552288</v>
+        <v>-0.0007163156416172129</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.003396887634504066</v>
+        <v>0.01887910933373645</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.03616505628447866</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.009322380545003572</v>
       </c>
       <c r="GA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
@@ -4973,16 +4973,16 @@
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.05019174682456837</v>
+        <v>-0.02644491083013127</v>
       </c>
       <c r="GE8" t="n">
         <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0.02500669393343154</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,79 +4990,79 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.162818090072745</v>
+        <v>0.3736699439836315</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.1111090442494771</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06807364643477161</v>
+        <v>-0.06972939572219503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3416663738005573</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1429685935978654</v>
+        <v>0.2741803697656536</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.1086343211332012</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0591568763872508</v>
+        <v>-0.07587007001959879</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3969081155454886</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01235418265557664</v>
+        <v>0.1073257933710293</v>
       </c>
       <c r="U9" t="n">
         <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.02742594692419606</v>
       </c>
       <c r="W9" t="n">
-        <v>0.005957226740102992</v>
+        <v>0.0391605792092602</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1274380673761513</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
         <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -5071,25 +5071,25 @@
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.01063803325646492</v>
+        <v>0.05436192758026396</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>-0.006213288000910096</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.08679002281100359</v>
+        <v>-0.01784502302730625</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.09570922111422073</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
@@ -5098,76 +5098,76 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.02873759241274769</v>
+        <v>0.0429380405365526</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.05192580534717805</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.003226086931325582</v>
+        <v>-0.05753196914089295</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.08627809452771126</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.1722365751693273</v>
+        <v>0.4159785066481036</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>0.02627152034215901</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.04042608020828941</v>
+        <v>0.0732902250624476</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.1430844434965554</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
         <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.05190676648342633</v>
+        <v>0.01289607907114811</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>-0.04580020400500418</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.02266529131197684</v>
+        <v>-0.1073756151199869</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.1130050123703077</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
@@ -5176,49 +5176,49 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.02086921841443277</v>
+        <v>0.04752874959572211</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0</v>
+        <v>0.05213149901093163</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.08002012289271609</v>
+        <v>0.1035631429896458</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.1147768411819052</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0.08053230599088373</v>
+        <v>0.2070871295055775</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.03355096022230637</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.09122315228581074</v>
+        <v>0.03566733112169791</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.1930703854691495</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>-0</v>
@@ -5227,58 +5227,58 @@
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
         <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.0557939953876281</v>
+        <v>-0.09691301453997864</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>0.01277275637341894</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.009445074307084807</v>
+        <v>-0.01701594719042847</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0.07049526524880176</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
         <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.04881304809865778</v>
+        <v>-0.001939199528956304</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.09441536577050862</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.02491469543769465</v>
+        <v>-0.1069766176741129</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.09009261218700378</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
         <v>0</v>
@@ -5287,73 +5287,73 @@
         <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.0524166839118765</v>
+        <v>-0.08576267887201537</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.02820992177304668</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.01692115768982943</v>
+        <v>-0.02760437353159043</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0.07509461565293038</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.006828396304418294</v>
+        <v>-0.02456080213939923</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0</v>
+        <v>0.0255899074429797</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.03041559583277682</v>
+        <v>0.03556033547063503</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.03574999497155782</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
         <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.004265291986168544</v>
+        <v>-0.03932537122585802</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>0.05990523221167709</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0280114207085612</v>
+        <v>-0.06262593417186854</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.06760045140388381</v>
+        <v>0</v>
       </c>
       <c r="DT9" t="n">
         <v>-0</v>
@@ -5362,52 +5362,52 @@
         <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0.01636277738527323</v>
+        <v>0.02415998609982049</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>0.004731324178139031</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.03582412018119981</v>
+        <v>-0.0726309257012745</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.01153237461779842</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.07977638536790257</v>
+        <v>-0.08060149747796154</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0.02846258648066465</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.1263558592168209</v>
+        <v>0.05408122493806262</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0.09869913799716333</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
         <v>-0</v>
@@ -5419,103 +5419,103 @@
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0.004556497670754836</v>
+        <v>-0.05493272102814956</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0.03784514726638923</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.02454643422377595</v>
+        <v>-0.02232329686622774</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0.1312111153528324</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
         <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.06607447454062391</v>
+        <v>-0.08245117972676837</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>0.02098579156083209</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.01640801456591089</v>
+        <v>-0.01356111106783151</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0.08275000196727388</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.08619651160719964</v>
+        <v>-0.02602992146503139</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.0519464853993246</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.01375746394785369</v>
+        <v>-0.05239538892586627</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0.02988455026650576</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.09018344966042116</v>
+        <v>8.466370214392842e-05</v>
       </c>
       <c r="FR9" t="n">
         <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>0.03601085780486938</v>
       </c>
       <c r="FT9" t="n">
-        <v>-0.00229287168650945</v>
+        <v>5.208333738372331e-05</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.0003610957177105315</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
@@ -5527,39 +5527,39 @@
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0.064084552808714</v>
+        <v>-0.001751769973497269</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0.04496225973144782</v>
       </c>
       <c r="GC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.03628825735121871</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.8757358400654618</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -5568,25 +5568,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0611141639562104</v>
+        <v>-0.1739822999462084</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1406050330842724</v>
+        <v>-0.6052980525206965</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.04149609135381725</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.7016243590570893</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -5595,79 +5595,79 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009229291620785585</v>
+        <v>-0.1666693418011055</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1497917909402485</v>
+        <v>-0.7479677582627354</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.07296509950809142</v>
+        <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1451387849260314</v>
       </c>
       <c r="U10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.005110385407691391</v>
+        <v>-0.0592281027658556</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03064168148882166</v>
+        <v>0.02771201603258624</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.00171341696002927</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.1627531421057762</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.06258390516637172</v>
+        <v>0.07351613561396965</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.05713282278092589</v>
+        <v>-0.001224004008006532</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.03123148377054899</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.1988605125494959</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -5676,16 +5676,16 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.008464494567280892</v>
+        <v>0.05325994772216466</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0178436771184729</v>
+        <v>-0.1543673859039075</v>
       </c>
       <c r="AQ10" t="n">
         <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0007977068835844939</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,7 +5694,7 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.780955627497029</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
@@ -5703,259 +5703,259 @@
         <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.007304008680646307</v>
+        <v>-0.1905854617420649</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01453952706532726</v>
+        <v>-0.5106360843688624</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.005280261405697075</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.1598629162213758</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.02900417954721848</v>
+        <v>-0.1891193138392337</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.03040907174767178</v>
+        <v>-0.1236609488946972</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.05409913529038419</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.19558314950627</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.02049263755537058</v>
+        <v>-0.06154458199384372</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.041733063183423</v>
+        <v>-0.001465827215218763</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0.01258799831035441</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.4084437961544864</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.06548945241858564</v>
+        <v>-0.1807611910570495</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.1167733991919531</v>
+        <v>-0.2857942354051501</v>
       </c>
       <c r="CA10" t="n">
         <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.01587920004796339</v>
+        <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.1923155253277998</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.005078115382883353</v>
+        <v>-0.04238052656661087</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.02250798108515269</v>
+        <v>0.1727191447606748</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.01732028551780233</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>0.017762237474687</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.03382612173466284</v>
+        <v>0.07742937035808944</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.04969008129941468</v>
+        <v>-0.0452642842253728</v>
       </c>
       <c r="CS10" t="n">
         <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.01668166722002447</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.1615659671161713</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.01728133400222778</v>
+        <v>-0.03376175048949161</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0.02970688317638428</v>
+        <v>0.1908203413111675</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01904535398572199</v>
+        <v>-0</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.03711053544368546</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.06303180590695648</v>
+        <v>-0.009889275010642986</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.004190813679959574</v>
+        <v>-0.03693574437359947</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.003639622996008937</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.03680603889925194</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01742438305123042</v>
+        <v>-0.02617836966393604</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0610165811514488</v>
+        <v>0.001236345588553991</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.02569757488807521</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
         <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.05195343802956361</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01093134105330577</v>
+        <v>-0.009244594353104868</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.007939810096151413</v>
+        <v>0.04766372520199963</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.01255428210255621</v>
+        <v>0</v>
       </c>
       <c r="EE10" t="n">
         <v>-0</v>
@@ -5964,79 +5964,79 @@
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.1267044799490827</v>
       </c>
       <c r="EH10" t="n">
         <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.04840472719931811</v>
+        <v>0.03938081492232988</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.05996986675701025</v>
+        <v>0.2016464702588582</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>-0.0282100753202934</v>
+        <v>0</v>
       </c>
       <c r="EN10" t="n">
         <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.08031520004278841</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.003432756467253427</v>
+        <v>-0.02778648598307583</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0.02929013477577443</v>
+        <v>0.1128342582077246</v>
       </c>
       <c r="EU10" t="n">
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.03174043008299318</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.1497014728480349</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.01188961375417674</v>
+        <v>-0.04857416304001688</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0.03106334174873813</v>
+        <v>0.1614427342786538</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.01800039384977386</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
@@ -6045,79 +6045,79 @@
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.1035210991900925</v>
       </c>
       <c r="FI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.005830668314682446</v>
+        <v>-0.02657560996278862</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.04042718122667749</v>
+        <v>-0.1367547473948276</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.01788873915653844</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.03660468081897447</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0002447994446624096</v>
+        <v>-0.001396334884416958</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.004644178971511544</v>
+        <v>0.06927948090771309</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.002215704392935109</v>
+        <v>0</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>0.05770982630329355</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC10" t="n">
         <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.04289702081414866</v>
+        <v>-0.07097593721359893</v>
       </c>
       <c r="GE10" t="n">
         <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.02093571070519989</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6125,49 +6125,49 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0.0947945928476534</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.000195628065974</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2739359680989013</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08390123239219739</v>
+        <v>0.3546461735666924</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3233604453973417</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0.2140097108074146</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.8638897025205584</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2884844324084572</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07904702243965057</v>
+        <v>0.4710572739720745</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.3801003166735182</v>
+        <v>-0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -6179,106 +6179,106 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>-0.09406387604987888</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-0.4102473340757384</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.00106443939976923</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.06881861276289683</v>
+        <v>-0.08455032768411598</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.1671529680204678</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA11" t="n">
         <v>-0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>-0.07773832471820794</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0.187361699922981</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01851242111821892</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2743673568196763</v>
+        <v>0.1162275197873491</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.05093099261056065</v>
+        <v>-0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0.1937294037235946</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0.1799235530409693</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1453665711334647</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.09701262635342245</v>
+        <v>0.169663310111013</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.06076826181253648</v>
+        <v>-0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>-0</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0</v>
+        <v>-0.03076636276406243</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0.8367069858023117</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.1897613961960645</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1645630775246115</v>
+        <v>-0.2553197343304497</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.1477061680541714</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA11" t="n">
         <v>0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>-0.01270050177357987</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0.1918695433854889</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.001665383898996305</v>
+        <v>-0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.06013366326567519</v>
+        <v>0.2819430153610332</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.1315943374086848</v>
+        <v>0</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -6314,160 +6314,160 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>-0.1704697310074596</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0.1308766487073237</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.033593166027531</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
         <v>0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.09754294797998654</v>
+        <v>-0.2914520221573327</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.04016005731716188</v>
+        <v>0</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0</v>
+        <v>-0.02418006514279095</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0.5775079896191259</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1137384432313259</v>
+        <v>-0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01350559548151277</v>
+        <v>-0.2361855416007207</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.2376070059549661</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>0.007939602367271764</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>0.200829888847042</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.07441076456580144</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.03355284790143857</v>
+        <v>-0.06912822949654562</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.07864772533460784</v>
+        <v>-0</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>0</v>
+        <v>0.2108073509479043</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>0.02698993975591833</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.1162877824390381</v>
+        <v>0</v>
       </c>
       <c r="CP11" t="n">
         <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1451497258496066</v>
+        <v>0.6246747807104319</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.02421372791237092</v>
+        <v>0</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>-0.01393319264323321</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>0.1926835228209358</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.06188462329310536</v>
+        <v>0</v>
       </c>
       <c r="CY11" t="n">
         <v>-0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.008727963345944421</v>
+        <v>0.005862315482838054</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.07494720612921632</v>
+        <v>-0</v>
       </c>
       <c r="DB11" t="n">
         <v>-0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
         <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>0.1717226490935927</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>0.4403637173219805</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0.06993244995681892</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.09150512835627415</v>
+        <v>-0.06150967775170918</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0.08896088231429228</v>
+        <v>0</v>
       </c>
       <c r="DK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL11" t="n">
         <v>-0</v>
@@ -6476,25 +6476,25 @@
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>0.004834694215334534</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>0.06660908990369091</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.03338618386017799</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.00796496493754548</v>
+        <v>0.1708401270488526</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0.03157512642406192</v>
+        <v>0</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
         <v>0</v>
@@ -6503,22 +6503,22 @@
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>-0.01151536005050363</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>0.480432641099542</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.01525090050320671</v>
+        <v>-0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.09314581063088666</v>
+        <v>0.2824317113323264</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.01281322994324928</v>
+        <v>-0</v>
       </c>
       <c r="EC11" t="n">
         <v>0</v>
@@ -6527,25 +6527,25 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>0</v>
+        <v>0.06467640917304741</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>0.06654407801499847</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.07770258930655867</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.02828363500809728</v>
+        <v>-0.220245226976764</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.1344066143477155</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
         <v>0</v>
@@ -6557,76 +6557,76 @@
         <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>0.01705313109458252</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>0.08831876030190038</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.01039564833495783</v>
+        <v>-0</v>
       </c>
       <c r="ER11" t="n">
         <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.03516249836011938</v>
+        <v>0.1443800731181142</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.1341474454476687</v>
+        <v>0</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW11" t="n">
         <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>0.01347628540249116</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>0.2026402362596129</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.06735091589896396</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
         <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.0138592220768541</v>
+        <v>0.02555343966385302</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0587896677735671</v>
+        <v>0</v>
       </c>
       <c r="FD11" t="n">
         <v>0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>-0.01351098137261296</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>0.1285620807148873</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.06902636757735946</v>
+        <v>0</v>
       </c>
       <c r="FJ11" t="n">
         <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.02808900708521063</v>
+        <v>0.1676964443625349</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.004864132067891846</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
@@ -6635,25 +6635,25 @@
         <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0.001393995022686104</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0</v>
+        <v>0.04203717078401836</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.001065484084795606</v>
+        <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT11" t="n">
-        <v>-0.01302676701742811</v>
+        <v>0.05112155929047651</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.04385111817026108</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
         <v>0</v>
@@ -6662,34 +6662,34 @@
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>-0</v>
+        <v>0.1981716220921718</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>0.08891479033184367</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.01901412508289763</v>
+        <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.05370106425587792</v>
+        <v>0</v>
       </c>
       <c r="GE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF11" t="n">
         <v>0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -6697,124 +6697,124 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.5025994176302351</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2549464183111108</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01952662972783686</v>
+        <v>-0.03234233613095101</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1184774792430794</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0.3243190074281432</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.3543559262263809</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2670624693915981</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0005041131992289206</v>
+        <v>-0.0727056060268471</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1133339678422343</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-0.2544294435558138</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.1131928689981723</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.00781064483253156</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.05204299303002242</v>
+        <v>0.006154694897210576</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.07333150369116923</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>-0.07613652471431498</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.1703138451986171</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.02496919752861381</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
         <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.06480203664718358</v>
+        <v>-0.04153114115060682</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.04910785791479483</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0</v>
+        <v>-0.02424773754708348</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.09552635091293049</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0615910609297504</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1056664166923952</v>
+        <v>-0.0005930179846301423</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6823,376 +6823,376 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.02059702028836454</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0.07882455555996977</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.4523337567415014</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.119048021149821</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
         <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02831585520173195</v>
+        <v>0.1517605598065375</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.1534707973016705</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0.1404093262725181</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.07501628806493117</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0677330856162988</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.05403463451613667</v>
+        <v>-0.1799295426076874</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.04027759948730547</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>-0.17491429587882</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.01855901654884917</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.06010149969811356</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
         <v>0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.07022995997687036</v>
+        <v>0.15363148965093</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.06948188234749887</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0.01282564579733253</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2584867140468766</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.08927991683783863</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.004616590270178291</v>
+        <v>0.06779278497354253</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.04504463006408451</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0.05439368754766404</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.1063051417888271</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0.06226271954817156</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.0003548829326435746</v>
+        <v>-0.0123999375250363</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01825002591043126</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0.08241951422047439</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.06478893541454656</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.03934576782265674</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.06458907914323792</v>
+        <v>-0.04621327902943281</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.01368999778883443</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0.02343245301141927</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.09414416943103228</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0.06346060381389163</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.01353053599365075</v>
+        <v>-0.01914849684373003</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0171183504719948</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0.07504276223898444</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.1182261744395655</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0.01040309217142933</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.06883132017007558</v>
+        <v>0.05412685565158881</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
         <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.04240308226174935</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>0.03219904337586417</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.01423163962202957</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.01090632486849035</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
         <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.004206438151719307</v>
+        <v>0.006994885417896802</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.02370140160106454</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>-0.02374782169982614</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>0</v>
+        <v>0.07353167572043219</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.03914361093710002</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.03085257597916232</v>
+        <v>-0.04227195418086139</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.0106770507511172</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0.02796226645634012</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.03077529897577023</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0.06224687037527939</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
         <v>0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.0259420579919823</v>
+        <v>-0.0004336784504817793</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.02783121019871664</v>
+        <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>0.1036915773196381</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.1056797150948331</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.005664570878348319</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0314839536192492</v>
+        <v>-0.03259428197368409</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.006498673983114299</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0.04756516615355748</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.1178670650332119</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0.06792407158988198</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0004861198542076317</v>
+        <v>-0.02715481701731032</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.01908595671669919</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0.0646619709015803</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>-0.06191831366897853</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0.05472559931766342</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.03216685378078509</v>
+        <v>-0.055576272012112</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
@@ -7201,81 +7201,81 @@
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.02189869014475254</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0.02139657467474632</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.00148086181662483</v>
       </c>
       <c r="FR12" t="n">
-        <v>-0.0024589659694091</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.0006949452012371504</v>
+        <v>0.000504162863575076</v>
       </c>
       <c r="FU12" t="n">
         <v>-0</v>
       </c>
       <c r="FV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.01610433978873493</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0.01357506348458504</v>
       </c>
       <c r="FY12" t="n">
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.05419168035346556</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.01801932364483579</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
         <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.05054217002563871</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>0.005116448674482819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-0.1450283934898477</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2272670160233379</v>
+        <v>0.3062561047424777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4374785793808934</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02945845956471287</v>
+        <v>0.004364620054611141</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -7284,58 +7284,58 @@
         <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-0.1332743239940226</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2450569103089743</v>
+        <v>0.2873678197897083</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4961396473381582</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.02986212177029565</v>
+        <v>-0.08368245261017246</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.005902332190468476</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.1478119969489917</v>
+        <v>0.1031246008266935</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09704544680200124</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.07237079413433088</v>
+        <v>0.05699720229877055</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -7344,22 +7344,22 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0.02586191543692579</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.1353968952702611</v>
+        <v>0.1138783956977097</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.07499217272294589</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0001317613966663639</v>
+        <v>0.01371311578678623</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
@@ -7371,19 +7371,19 @@
         <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>-0.01677649799122805</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.08030241180807023</v>
+        <v>0.07775943758745023</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1130932950903111</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.02123723272388232</v>
+        <v>0.05098910888926177</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7395,55 +7395,55 @@
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0.0239761537076614</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.2354199228534452</v>
+        <v>0.2680415258520715</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1193175625004592</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1212823594473348</v>
+        <v>0.2275944397392204</v>
       </c>
       <c r="AY13" t="n">
         <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>-0.06963962924390511</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.1001327325234839</v>
+        <v>0.01245205525493021</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.147613818274802</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.1527035522146895</v>
+        <v>-0.1533763950412602</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -7452,22 +7452,22 @@
         <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0</v>
+        <v>-0.06101163327465105</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0.005055877588540454</v>
+        <v>-0.02274610606011445</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.113135784867833</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
         <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.07397807727292621</v>
+        <v>0.01391576317500381</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,82 +7476,82 @@
         <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>0.01501444647920728</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.0902965642807888</v>
+        <v>0.1683472121580763</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.1947022637250677</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.005432986380287303</v>
+        <v>0.0507792668290547</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>0.04000007307173718</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.06028592031002845</v>
+        <v>-0.05453818036973004</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.07405621025934449</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
         <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.005067987645957278</v>
+        <v>-0.03840247409659924</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0</v>
+        <v>-0.03781898321579104</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.01195108236789436</v>
+        <v>-0.01379031628086412</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.09391988992677412</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1021796122159619</v>
+        <v>-0.1213706244010509</v>
       </c>
       <c r="CR13" t="n">
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7560,52 +7560,52 @@
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0.02352082975433117</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.04082525558049114</v>
+        <v>-0.06245390504132654</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.0824230909854637</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.03100771927363086</v>
+        <v>-0.02894768230131029</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0.03547785053168344</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.1602514597550916</v>
+        <v>-0.09648272798232696</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.004665905195768773</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.02002168087326787</v>
+        <v>-0.007177448380538715</v>
       </c>
       <c r="DJ13" t="n">
         <v>0</v>
       </c>
       <c r="DK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL13" t="n">
         <v>-0</v>
@@ -7614,154 +7614,154 @@
         <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0</v>
+        <v>0.02277124310493113</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.02941598055944519</v>
+        <v>-0.0129358505656151</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0463417251062918</v>
+        <v>-0</v>
       </c>
       <c r="DQ13" t="n">
         <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.07565480810634741</v>
+        <v>0.04261667835639647</v>
       </c>
       <c r="DS13" t="n">
         <v>-0</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0.01520493498490725</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.02308610163359964</v>
+        <v>0.0593548273950997</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.05893112336229861</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.04172666456876057</v>
+        <v>0.01296338099423119</v>
       </c>
       <c r="EB13" t="n">
         <v>0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
         <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>-0.01039572169350779</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.07392644286376125</v>
+        <v>0.001263226131389152</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.06138152793289909</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.03546344454133991</v>
+        <v>-0.02461621833527135</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>0</v>
+        <v>0.0106854152706513</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.1100877343750289</v>
+        <v>-0.1025026239040847</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0.05508270993010054</v>
+        <v>-0</v>
       </c>
       <c r="ER13" t="n">
         <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.09939573905938742</v>
+        <v>-0.03902147905849932</v>
       </c>
       <c r="ET13" t="n">
         <v>-0</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0</v>
+        <v>0.02330788700807145</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.02666253509227392</v>
+        <v>-0.0744448865289912</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.08832671830849215</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
         <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0324117233935278</v>
+        <v>-0.06868372175746276</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
         <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>0.02140080285614447</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.06548235191931097</v>
+        <v>0.004955464002654584</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.1228361490225335</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.03418025449305958</v>
+        <v>-0.06706801856876159</v>
       </c>
       <c r="FL13" t="n">
         <v>-0</v>
@@ -7773,22 +7773,22 @@
         <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>0.0864534031141376</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.08441544910400729</v>
+        <v>-0.02326556006440409</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.00967943357004462</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.002215574733197211</v>
+        <v>-0.004870107481667689</v>
       </c>
       <c r="FU13" t="n">
         <v>-0</v>
@@ -7797,25 +7797,25 @@
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
         <v>-0</v>
       </c>
       <c r="FY13" t="n">
-        <v>-0</v>
+        <v>-0.0320186217691341</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02370611076512513</v>
+        <v>-0.0175993094740689</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.1206401352443934</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
         <v>-0</v>
@@ -7827,33 +7827,33 @@
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.5070684835287268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.22914642389301</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.119768643350927</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01127623570981798</v>
+        <v>-0.1519953215431933</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0</v>
+        <v>-0.1769548735060516</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -7862,76 +7862,76 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0.3430387183262252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2551347538101287</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1056718486135906</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1533787370633022</v>
+        <v>-0.1549731854593712</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>-0.2009485741394578</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1369897935913975</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03918546446066976</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06830263871112745</v>
+        <v>-0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1149263397611568</v>
+        <v>0.125510729472762</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0.01312121145246103</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.1394273036977619</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.001425414246580682</v>
+        <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.05720318114591656</v>
+        <v>-0</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.005868837971938669</v>
+        <v>0.06253247594811912</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0</v>
+        <v>-0.02575009079944633</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -7940,82 +7940,82 @@
         <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.04822317261119883</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.03148142691570212</v>
+        <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0.01710711558198565</v>
+        <v>-0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.02084590460730125</v>
+        <v>-0.008666941256081645</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0.03495606889012583</v>
       </c>
       <c r="AR14" t="n">
         <v>-0</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.4414688501999068</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.109054377675487</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.02599527577647749</v>
+        <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1074031759365329</v>
+        <v>0.03498103781186453</v>
       </c>
       <c r="AY14" t="n">
         <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>-0.122386106171035</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
         <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.100733676612333</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.09668637064175227</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.0875396701065216</v>
+        <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.05895851963768735</v>
+        <v>-0.05150113679389452</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>-0.08747455111042932</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -8024,22 +8024,22 @@
         <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>0.03325863507546089</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.04618852641713742</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.05134993587770387</v>
+        <v>-0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.09151906872601946</v>
+        <v>0.1244404288640718</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0.03947354190521901</v>
       </c>
       <c r="BS14" t="n">
         <v>-0</v>
@@ -8051,184 +8051,184 @@
         <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>0.2018127536076341</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.05827126447148122</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0.0507021596832366</v>
+        <v>-0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.003594716075299669</v>
+        <v>-0.01139150127486592</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0.06301471481279776</v>
       </c>
       <c r="CB14" t="n">
         <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0.1078788746939449</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0.04399883130992478</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.03750079955933661</v>
+        <v>-0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.03687952167357643</v>
+        <v>0.02996560589584826</v>
       </c>
       <c r="CI14" t="n">
         <v>-0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>0.05319002826730744</v>
       </c>
       <c r="CK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL14" t="n">
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0.1078420040983675</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0.006940059297519898</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.06129650121055338</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.02569257660913728</v>
+        <v>-0.1202469607854581</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>0.02886145479119778</v>
       </c>
       <c r="CT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW14" t="n">
-        <v>-0</v>
+        <v>-0.09029384795738359</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0.04444597879533009</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.03753001672667871</v>
+        <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.02128341430560061</v>
+        <v>0.02866149027583024</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>-0</v>
+        <v>0.03656536726165375</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0.2628776269842755</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.04018963362906428</v>
+        <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>-0.02798866612891078</v>
+        <v>-0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.06373180498513545</v>
+        <v>0.04319878717753253</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0</v>
+        <v>-0.05513804135011058</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN14" t="n">
         <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>-0.03104925690354835</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.03713118616522017</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.02229651188661981</v>
+        <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.1033296036903696</v>
+        <v>0.007103100026380021</v>
       </c>
       <c r="DS14" t="n">
         <v>-0</v>
       </c>
       <c r="DT14" t="n">
-        <v>-0</v>
+        <v>0.02356251419881231</v>
       </c>
       <c r="DU14" t="n">
         <v>-0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>-0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>0.09428272573595585</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.03492457853889042</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0.0314176446703688</v>
+        <v>-0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.0135380712113812</v>
+        <v>-0.06232901063393878</v>
       </c>
       <c r="EB14" t="n">
         <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>-0.02341972319180255</v>
       </c>
       <c r="ED14" t="n">
         <v>0</v>
@@ -8237,133 +8237,133 @@
         <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0.07880185137472134</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0.05286268246844156</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.05408616988604856</v>
+        <v>-0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.04910667073278727</v>
+        <v>0.05017273052686625</v>
       </c>
       <c r="EK14" t="n">
         <v>-0</v>
       </c>
       <c r="EL14" t="n">
-        <v>-0</v>
+        <v>0.04341235960728476</v>
       </c>
       <c r="EM14" t="n">
         <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.03067011551221096</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.004639480209572721</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.02100495094279592</v>
+        <v>-0</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.01726839250294773</v>
+        <v>0.0853738739473147</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0.03959466301732154</v>
       </c>
       <c r="EV14" t="n">
         <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0.09231393266458732</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0.03889451995851201</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.03383292263557206</v>
+        <v>-0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.03489514966421343</v>
+        <v>0.02193125867806608</v>
       </c>
       <c r="FC14" t="n">
         <v>-0</v>
       </c>
       <c r="FD14" t="n">
-        <v>0</v>
+        <v>0.03532723903125196</v>
       </c>
       <c r="FE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0.04400904787193322</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0.06195701334604137</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.01640987630720478</v>
+        <v>0</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.01138200849789585</v>
+        <v>-0.1127322733516995</v>
       </c>
       <c r="FL14" t="n">
         <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>0</v>
+        <v>0.02411277505497511</v>
       </c>
       <c r="FN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
         <v>-0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.009793930386886193</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.001997429208128191</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.03018936638441815</v>
+        <v>-0</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.001562851300729022</v>
+        <v>0.005182557770810742</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>-0.03051656735267664</v>
       </c>
       <c r="FW14" t="n">
         <v>0</v>
@@ -8372,31 +8372,31 @@
         <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>-0.05903719563294344</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.035764903128905</v>
+        <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0.02925703867203719</v>
+        <v>-0</v>
       </c>
       <c r="GC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD14" t="n">
         <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0.001741469352806429</v>
       </c>
       <c r="GF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>-0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>-0</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>-0</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>-0</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>-0</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>-0</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>-0</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>-0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
         <v>0</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="BW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
@@ -8632,7 +8632,7 @@
         <v>-0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>-0</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="CO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>-0</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="DG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>-0</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>-0</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="EH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI15" t="n">
         <v>0</v>
@@ -8821,7 +8821,7 @@
         <v>-0</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER15" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>-0</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>-0</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="FI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>-0</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>-0</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
@@ -8970,22 +8970,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4770588444534222</v>
+        <v>-0.1869573382331637</v>
       </c>
       <c r="C16" t="n">
         <v>-0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.3023184592343354</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.08145923210450737</v>
+        <v>0.02272039432838016</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2381446709960382</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
@@ -8997,22 +8997,22 @@
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4346915054934279</v>
+        <v>-0.1604474752503273</v>
       </c>
       <c r="L16" t="n">
         <v>-0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>0.327655719272808</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03928001734693582</v>
+        <v>0.1113456600398723</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3067204206549781</v>
+        <v>-0</v>
       </c>
       <c r="P16" t="n">
         <v>-0</v>
@@ -9027,106 +9027,106 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.01937080832865748</v>
+        <v>-0.02691806874379581</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>0.0143252989727879</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04959992288228052</v>
+        <v>0.1060886056445353</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.03816237828834269</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.124622119462728</v>
+        <v>-0.04970619789400177</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.03045049329929172</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.008374310721442723</v>
+        <v>0.009733480363607931</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.03647993417761625</v>
+        <v>-0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.05812533843296169</v>
+        <v>-0.05487763676867052</v>
       </c>
       <c r="AM16" t="n">
         <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>0.01266633104407108</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.005949094964541259</v>
+        <v>-0.02272793854071766</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.07947808455820422</v>
+        <v>-0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.201290449597446</v>
+        <v>-0.286873477679045</v>
       </c>
       <c r="AV16" t="n">
         <v>-0</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0</v>
+        <v>0.006458170809651075</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.01046551305022332</v>
+        <v>-0.1412027336967856</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.1019406975342242</v>
+        <v>-0</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
         <v>-0</v>
@@ -9135,76 +9135,76 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.1750721585844235</v>
+        <v>0.02976041038025856</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>0.166452845645908</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.04710500526081705</v>
+        <v>0.2375478576965494</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.05939261564080582</v>
+        <v>-0</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0.01697237164251514</v>
+        <v>0.0462724637641261</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>0.03683820245122325</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.08631842802587168</v>
+        <v>-0.06523694290064841</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.1601435482452402</v>
+        <v>0</v>
       </c>
       <c r="BR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS16" t="n">
         <v>-0</v>
       </c>
       <c r="BT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0771019097045693</v>
+        <v>-0.1781186781916282</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>-0</v>
+        <v>-0.01236493487917666</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.08417873381328454</v>
+        <v>-0.008724332733459643</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0.1826910536023095</v>
+        <v>-0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
         <v>0</v>
@@ -9216,19 +9216,19 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0.08852426079697072</v>
+        <v>0.04387018383907025</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>-0.08760037473582617</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.00362607385537192</v>
+        <v>0.02148408688146284</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.06003865439492718</v>
+        <v>-0</v>
       </c>
       <c r="CJ16" t="n">
         <v>0</v>
@@ -9237,85 +9237,85 @@
         <v>-0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
         <v>-0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.02832383596226008</v>
+        <v>-0.01388834498071505</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.0215314864692131</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.05194421036100241</v>
+        <v>-0.008018795035296396</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0.08612918495806067</v>
+        <v>-0</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
         <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
         <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0.07182576851211049</v>
+        <v>0.05158609911742962</v>
       </c>
       <c r="CX16" t="n">
         <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>-0.07684784951489181</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.008182059311964574</v>
+        <v>0.001455367635933529</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.06360086350376756</v>
+        <v>0</v>
       </c>
       <c r="DB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>-0.03662037256453955</v>
+        <v>0.06348848124026969</v>
       </c>
       <c r="DG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0.0007436809931250562</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.08700424044988457</v>
+        <v>-0.04827039199911155</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0.003070849488554489</v>
+        <v>-0</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM16" t="n">
         <v>-0</v>
@@ -9324,52 +9324,52 @@
         <v>0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0.002198867097033914</v>
+        <v>0.03755457765395096</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0</v>
+        <v>-0.1080578250472073</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.01365502072304718</v>
+        <v>-0.02462519411844031</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0.07059426401114281</v>
+        <v>-0</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
         <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW16" t="n">
         <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0.04914306332311165</v>
+        <v>-0.002575986165579502</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>-0</v>
+        <v>0.01733143302964566</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.05479581147845768</v>
+        <v>-0.01297561302774764</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0.04397035637986655</v>
+        <v>-0</v>
       </c>
       <c r="EC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
         <v>-0</v>
@@ -9378,46 +9378,46 @@
         <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>-0.1251458912192989</v>
+        <v>-1.661808614858435e-05</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>-0.03391516116037453</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.08037601301737049</v>
+        <v>-0.02492316413475851</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.07034775291462812</v>
+        <v>-0</v>
       </c>
       <c r="EL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN16" t="n">
         <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0.02550103870643113</v>
+        <v>0.05047716562235082</v>
       </c>
       <c r="EQ16" t="n">
         <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0.08673432366434224</v>
       </c>
       <c r="ES16" t="n">
-        <v>-0.007124934009578905</v>
+        <v>0.1004827382937108</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.1120676159330898</v>
+        <v>0</v>
       </c>
       <c r="EU16" t="n">
         <v>0</v>
@@ -9432,19 +9432,19 @@
         <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0.08601572752363887</v>
+        <v>0.06283022070518648</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>-0.08369018873682219</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.00103017961806284</v>
+        <v>0.02190161719298093</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.0794402552754799</v>
+        <v>-0</v>
       </c>
       <c r="FD16" t="n">
         <v>0</v>
@@ -9453,79 +9453,79 @@
         <v>-0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
         <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.008197732574305885</v>
+        <v>0.05941678116704303</v>
       </c>
       <c r="FI16" t="n">
         <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>0.01588095675096045</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.01389049333246465</v>
+        <v>-0.04108164447852088</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.03709661471611442</v>
+        <v>0</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
         <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0.03325202354672196</v>
+        <v>-0.00230800481226204</v>
       </c>
       <c r="FR16" t="n">
         <v>0</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>-0.04876600872004058</v>
       </c>
       <c r="FT16" t="n">
-        <v>-0.0004306702682410905</v>
+        <v>0.02332196084833215</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.0290608492698082</v>
+        <v>0</v>
       </c>
       <c r="FV16" t="n">
         <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.002538015545928688</v>
+        <v>0.07653023830897418</v>
       </c>
       <c r="GA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB16" t="n">
-        <v>-0</v>
+        <v>0.1406764507148384</v>
       </c>
       <c r="GC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>-0.03565162577729169</v>
+        <v>0</v>
       </c>
       <c r="GE16" t="n">
         <v>0</v>
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
